--- a/data/pca/factorExposure/factorExposure_2009-06-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0174432984167728</v>
+        <v>0.01683848666029495</v>
       </c>
       <c r="C2">
-        <v>0.001668959054593475</v>
+        <v>0.001229572961923781</v>
       </c>
       <c r="D2">
-        <v>-0.008763936476990662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009066490414253347</v>
+      </c>
+      <c r="E2">
+        <v>-0.001912871784562657</v>
+      </c>
+      <c r="F2">
+        <v>0.01191632378409664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09007776733982947</v>
+        <v>0.09184468101244915</v>
       </c>
       <c r="C4">
-        <v>0.0199249940088206</v>
+        <v>0.01509776878970185</v>
       </c>
       <c r="D4">
-        <v>-0.0769470932809168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0820040826088699</v>
+      </c>
+      <c r="E4">
+        <v>-0.02734162751485045</v>
+      </c>
+      <c r="F4">
+        <v>-0.03184260443313595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.572634337617928e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4.310769865530035e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-7.602738011591801e-05</v>
+      </c>
+      <c r="E5">
+        <v>5.486769987813127e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0001063374145279039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.152895183611365</v>
+        <v>0.1614603730703919</v>
       </c>
       <c r="C6">
-        <v>0.03024911012660093</v>
+        <v>0.02945220796960137</v>
       </c>
       <c r="D6">
-        <v>0.03650591092456613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02632527345139435</v>
+      </c>
+      <c r="E6">
+        <v>-0.009107748112850395</v>
+      </c>
+      <c r="F6">
+        <v>-0.04038983771670249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06020305086183796</v>
+        <v>0.06246340427133512</v>
       </c>
       <c r="C7">
-        <v>0.001925075276975955</v>
+        <v>-0.001368184213509491</v>
       </c>
       <c r="D7">
-        <v>-0.04858850093636883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05367330665472714</v>
+      </c>
+      <c r="E7">
+        <v>-0.01515872085887542</v>
+      </c>
+      <c r="F7">
+        <v>-0.04940837766824329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06139121258727568</v>
+        <v>0.05698789597597836</v>
       </c>
       <c r="C8">
-        <v>-0.01006762602134253</v>
+        <v>-0.01190433402782752</v>
       </c>
       <c r="D8">
-        <v>-0.0249089360816109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02978133139051781</v>
+      </c>
+      <c r="E8">
+        <v>-0.01810123778592795</v>
+      </c>
+      <c r="F8">
+        <v>0.02761372405287441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06984562493595099</v>
+        <v>0.07135491352506329</v>
       </c>
       <c r="C9">
-        <v>0.01588966404486914</v>
+        <v>0.01067655807289373</v>
       </c>
       <c r="D9">
-        <v>-0.07946565214625999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08532816430653167</v>
+      </c>
+      <c r="E9">
+        <v>-0.02488562892857444</v>
+      </c>
+      <c r="F9">
+        <v>-0.04866373981598362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0848606848520882</v>
+        <v>0.08687619431369727</v>
       </c>
       <c r="C10">
-        <v>0.01602384757094266</v>
+        <v>0.02179623309682981</v>
       </c>
       <c r="D10">
-        <v>0.1674738823820567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1594296322218547</v>
+      </c>
+      <c r="E10">
+        <v>0.03425802040130566</v>
+      </c>
+      <c r="F10">
+        <v>0.05862446953156296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09119795576661821</v>
+        <v>0.08771117487135538</v>
       </c>
       <c r="C11">
-        <v>0.01716496463607905</v>
+        <v>0.01186828105829968</v>
       </c>
       <c r="D11">
-        <v>-0.1105504167862252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1173546939275041</v>
+      </c>
+      <c r="E11">
+        <v>-0.04902745797238382</v>
+      </c>
+      <c r="F11">
+        <v>-0.02516312366643973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09682859512557611</v>
+        <v>0.09068033992887112</v>
       </c>
       <c r="C12">
-        <v>0.01547442491188549</v>
+        <v>0.00933913287018409</v>
       </c>
       <c r="D12">
-        <v>-0.1176252376588239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320905723423292</v>
+      </c>
+      <c r="E12">
+        <v>-0.04964287631025806</v>
+      </c>
+      <c r="F12">
+        <v>-0.03185553950227799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04482621913824161</v>
+        <v>0.04352742962558119</v>
       </c>
       <c r="C13">
-        <v>0.006577718350941601</v>
+        <v>0.002730128867307633</v>
       </c>
       <c r="D13">
-        <v>-0.04342449425680254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0537341010931465</v>
+      </c>
+      <c r="E13">
+        <v>-5.480622372073121e-06</v>
+      </c>
+      <c r="F13">
+        <v>-0.00477765729800826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01961417834277996</v>
+        <v>0.02346410379617413</v>
       </c>
       <c r="C14">
-        <v>0.01517132371390186</v>
+        <v>0.01386492994960879</v>
       </c>
       <c r="D14">
-        <v>-0.03189784817735385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03238714128374273</v>
+      </c>
+      <c r="E14">
+        <v>-0.01905111146251327</v>
+      </c>
+      <c r="F14">
+        <v>-0.01185172062916254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.034656491955292</v>
+        <v>0.03419389997842704</v>
       </c>
       <c r="C15">
-        <v>0.007556379859593156</v>
+        <v>0.005636460037731737</v>
       </c>
       <c r="D15">
-        <v>-0.04536372260476523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04680960970574654</v>
+      </c>
+      <c r="E15">
+        <v>-0.008860446942489355</v>
+      </c>
+      <c r="F15">
+        <v>-0.02954837631558455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07512859182224454</v>
+        <v>0.07257672277441586</v>
       </c>
       <c r="C16">
-        <v>0.007617684684286187</v>
+        <v>0.001980377078903122</v>
       </c>
       <c r="D16">
-        <v>-0.1150932151104266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1281558135037473</v>
+      </c>
+      <c r="E16">
+        <v>-0.06334008557633262</v>
+      </c>
+      <c r="F16">
+        <v>-0.02798276748214825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001139826752989996</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003324244454411334</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001951405296012319</v>
+      </c>
+      <c r="E17">
+        <v>-0.001468603810626717</v>
+      </c>
+      <c r="F17">
+        <v>0.002288224335048668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02423029290823452</v>
+        <v>0.04167196754178839</v>
       </c>
       <c r="C18">
-        <v>-0.001980316798062383</v>
+        <v>-0.002162059277044165</v>
       </c>
       <c r="D18">
-        <v>-0.02265251056072446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01564286209071042</v>
+      </c>
+      <c r="E18">
+        <v>0.00573042561350558</v>
+      </c>
+      <c r="F18">
+        <v>0.009024637059178258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06386463039353819</v>
+        <v>0.06205400694013877</v>
       </c>
       <c r="C20">
-        <v>0.005203647231221134</v>
+        <v>0.001181436754041005</v>
       </c>
       <c r="D20">
-        <v>-0.07211173894489339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07890472822895755</v>
+      </c>
+      <c r="E20">
+        <v>-0.05946894802638836</v>
+      </c>
+      <c r="F20">
+        <v>-0.02950218531610041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04102381406291966</v>
+        <v>0.04215403343809342</v>
       </c>
       <c r="C21">
-        <v>0.009819030480730632</v>
+        <v>0.006928697220983202</v>
       </c>
       <c r="D21">
-        <v>-0.03229674765160663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03580000293539547</v>
+      </c>
+      <c r="E21">
+        <v>-0.0002750149981736429</v>
+      </c>
+      <c r="F21">
+        <v>0.02408337446967997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04113091670762532</v>
+        <v>0.04312451715884093</v>
       </c>
       <c r="C22">
-        <v>0.001504245510238043</v>
+        <v>0.001166264172667783</v>
       </c>
       <c r="D22">
-        <v>-0.0007742647129892183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007142797410234753</v>
+      </c>
+      <c r="E22">
+        <v>-0.03699422538737431</v>
+      </c>
+      <c r="F22">
+        <v>0.04850361003322644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04109320137352746</v>
+        <v>0.04309995995711492</v>
       </c>
       <c r="C23">
-        <v>0.001493227896093979</v>
+        <v>0.001156949598922006</v>
       </c>
       <c r="D23">
-        <v>-0.0007987655168460381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007156540220475792</v>
+      </c>
+      <c r="E23">
+        <v>-0.03717983774485499</v>
+      </c>
+      <c r="F23">
+        <v>0.04847674945533174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08254198048938648</v>
+        <v>0.07841858547368487</v>
       </c>
       <c r="C24">
-        <v>0.008261989264533679</v>
+        <v>0.002803780159129987</v>
       </c>
       <c r="D24">
-        <v>-0.1147323561547724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1203205917793417</v>
+      </c>
+      <c r="E24">
+        <v>-0.05101153811992017</v>
+      </c>
+      <c r="F24">
+        <v>-0.03075825258765384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08726320286471492</v>
+        <v>0.08353525227690277</v>
       </c>
       <c r="C25">
-        <v>0.01054367414724354</v>
+        <v>0.005563967764870534</v>
       </c>
       <c r="D25">
-        <v>-0.1024412464510587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095470831008316</v>
+      </c>
+      <c r="E25">
+        <v>-0.03405392790219901</v>
+      </c>
+      <c r="F25">
+        <v>-0.02811070248156571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.057947258493839</v>
+        <v>0.06034616022219844</v>
       </c>
       <c r="C26">
-        <v>0.01814026667628704</v>
+        <v>0.01481488083508381</v>
       </c>
       <c r="D26">
-        <v>-0.03359758042762068</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04406227653373952</v>
+      </c>
+      <c r="E26">
+        <v>-0.03149173678860167</v>
+      </c>
+      <c r="F26">
+        <v>0.007275527899488395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1328050677890947</v>
+        <v>0.1426227684261938</v>
       </c>
       <c r="C28">
-        <v>0.01503159895212302</v>
+        <v>0.02377676245176882</v>
       </c>
       <c r="D28">
-        <v>0.2659063674480044</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2598825295230566</v>
+      </c>
+      <c r="E28">
+        <v>0.06830113212542729</v>
+      </c>
+      <c r="F28">
+        <v>-0.004807906204432386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02602094255843154</v>
+        <v>0.02853938099469244</v>
       </c>
       <c r="C29">
-        <v>0.009879731959745182</v>
+        <v>0.00906167867148479</v>
       </c>
       <c r="D29">
-        <v>-0.02994027695586924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03003297078669003</v>
+      </c>
+      <c r="E29">
+        <v>-0.015015006787117</v>
+      </c>
+      <c r="F29">
+        <v>0.01363574345572112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05973366964317869</v>
+        <v>0.05651535077682582</v>
       </c>
       <c r="C30">
-        <v>0.007882590857904234</v>
+        <v>0.002637173825391201</v>
       </c>
       <c r="D30">
-        <v>-0.08014076409633261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08820215305269093</v>
+      </c>
+      <c r="E30">
+        <v>-0.01474761175021817</v>
+      </c>
+      <c r="F30">
+        <v>-0.07887038775783707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05065169256191767</v>
+        <v>0.05101556006009376</v>
       </c>
       <c r="C31">
-        <v>0.01755187626944044</v>
+        <v>0.01629985276677912</v>
       </c>
       <c r="D31">
-        <v>-0.02109366944674368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02388058011011412</v>
+      </c>
+      <c r="E31">
+        <v>-0.02888826666777888</v>
+      </c>
+      <c r="F31">
+        <v>0.0009913248016743864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04799579312252125</v>
+        <v>0.05186716569125892</v>
       </c>
       <c r="C32">
-        <v>0.002191022346921651</v>
+        <v>-0.001188338140326654</v>
       </c>
       <c r="D32">
-        <v>-0.02984003383383789</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03409976991774093</v>
+      </c>
+      <c r="E32">
+        <v>-0.03391506512902669</v>
+      </c>
+      <c r="F32">
+        <v>-0.002713738051797896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0906517243124192</v>
+        <v>0.08981297836519268</v>
       </c>
       <c r="C33">
-        <v>0.01354888088913814</v>
+        <v>0.007622610809691746</v>
       </c>
       <c r="D33">
-        <v>-0.0893323967541885</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.103413557355797</v>
+      </c>
+      <c r="E33">
+        <v>-0.04813040998718446</v>
+      </c>
+      <c r="F33">
+        <v>-0.04387135738537012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0692064343877925</v>
+        <v>0.06725204736546075</v>
       </c>
       <c r="C34">
-        <v>0.01566990928227058</v>
+        <v>0.01089195232456723</v>
       </c>
       <c r="D34">
-        <v>-0.09641648302201331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1084546029312078</v>
+      </c>
+      <c r="E34">
+        <v>-0.03687260191289881</v>
+      </c>
+      <c r="F34">
+        <v>-0.03538860902829245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02557256671930564</v>
+        <v>0.02689440046282092</v>
       </c>
       <c r="C35">
-        <v>0.003918883212119924</v>
+        <v>0.003400442927678361</v>
       </c>
       <c r="D35">
-        <v>-0.008174693081403958</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01187982471927752</v>
+      </c>
+      <c r="E35">
+        <v>-0.01385795022912318</v>
+      </c>
+      <c r="F35">
+        <v>-0.0003579622711726832</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02522659778307744</v>
+        <v>0.02883555266985824</v>
       </c>
       <c r="C36">
-        <v>0.008211106247745457</v>
+        <v>0.007145737570417281</v>
       </c>
       <c r="D36">
-        <v>-0.03874591533001332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03958721282368169</v>
+      </c>
+      <c r="E36">
+        <v>-0.01779921775295944</v>
+      </c>
+      <c r="F36">
+        <v>-0.01498520357902796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001739497797604713</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007022180156074599</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002945783480861268</v>
+      </c>
+      <c r="E37">
+        <v>-0.0002128559128428034</v>
+      </c>
+      <c r="F37">
+        <v>0.00164083479242799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1110449220461682</v>
+        <v>0.09981614233667602</v>
       </c>
       <c r="C39">
-        <v>0.02308905311789625</v>
+        <v>0.01658548947693284</v>
       </c>
       <c r="D39">
-        <v>-0.1471298228637154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.150771700153315</v>
+      </c>
+      <c r="E39">
+        <v>-0.06130603158614999</v>
+      </c>
+      <c r="F39">
+        <v>-0.02169835995099416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03885473643038037</v>
+        <v>0.04393340665229804</v>
       </c>
       <c r="C40">
-        <v>0.009448785803461679</v>
+        <v>0.00795367475822162</v>
       </c>
       <c r="D40">
-        <v>-0.02374833467750338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03266439230713706</v>
+      </c>
+      <c r="E40">
+        <v>-0.002650996218290863</v>
+      </c>
+      <c r="F40">
+        <v>0.01522786628080614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02467136151956066</v>
+        <v>0.02649403005228692</v>
       </c>
       <c r="C41">
-        <v>0.007400728653219496</v>
+        <v>0.006854955132958441</v>
       </c>
       <c r="D41">
-        <v>-0.007866505271305623</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.009991273025858626</v>
+      </c>
+      <c r="E41">
+        <v>-0.01118895335705875</v>
+      </c>
+      <c r="F41">
+        <v>0.007688139557334051</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04180432281493934</v>
+        <v>0.03998108283530672</v>
       </c>
       <c r="C43">
-        <v>0.008560320508963978</v>
+        <v>0.007871911756239551</v>
       </c>
       <c r="D43">
-        <v>-0.01629521613854106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01884220015867717</v>
+      </c>
+      <c r="E43">
+        <v>-0.02558083236004739</v>
+      </c>
+      <c r="F43">
+        <v>0.01624391477527787</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0684152042071738</v>
+        <v>0.07771160039289611</v>
       </c>
       <c r="C44">
-        <v>0.02420722274412847</v>
+        <v>0.02000206449726183</v>
       </c>
       <c r="D44">
-        <v>-0.09518528136588227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09616977446370259</v>
+      </c>
+      <c r="E44">
+        <v>-0.06311944541358126</v>
+      </c>
+      <c r="F44">
+        <v>-0.1681065386596806</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02128106595481744</v>
+        <v>0.02410439925483567</v>
       </c>
       <c r="C46">
-        <v>0.004419578819937578</v>
+        <v>0.003647667195769933</v>
       </c>
       <c r="D46">
-        <v>-0.00891374121912661</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01202867925260502</v>
+      </c>
+      <c r="E46">
+        <v>-0.02766603980037139</v>
+      </c>
+      <c r="F46">
+        <v>0.005652700315860427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05370529648674631</v>
+        <v>0.0530346915330531</v>
       </c>
       <c r="C47">
-        <v>0.005612381997682734</v>
+        <v>0.004736862982329979</v>
       </c>
       <c r="D47">
-        <v>-0.007104322443128838</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01096436180282927</v>
+      </c>
+      <c r="E47">
+        <v>-0.02322036701386505</v>
+      </c>
+      <c r="F47">
+        <v>0.03158488263360913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04854323533044686</v>
+        <v>0.05112035580196423</v>
       </c>
       <c r="C48">
-        <v>0.00516921053601964</v>
+        <v>0.002544278145562227</v>
       </c>
       <c r="D48">
-        <v>-0.04674783603269229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04975066410888663</v>
+      </c>
+      <c r="E48">
+        <v>0.003021763695369714</v>
+      </c>
+      <c r="F48">
+        <v>-0.01296281432438496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1986002545092213</v>
+        <v>0.2001076713136901</v>
       </c>
       <c r="C49">
-        <v>0.02320738845770135</v>
+        <v>0.02152387869762232</v>
       </c>
       <c r="D49">
-        <v>0.0147710727611753</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005325024818085412</v>
+      </c>
+      <c r="E49">
+        <v>-0.03279287823139976</v>
+      </c>
+      <c r="F49">
+        <v>-0.04861725552189259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04909029745805927</v>
+        <v>0.05109355411838933</v>
       </c>
       <c r="C50">
-        <v>0.01318805508598955</v>
+        <v>0.01191805014246499</v>
       </c>
       <c r="D50">
-        <v>-0.02082846871748488</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0232239461727613</v>
+      </c>
+      <c r="E50">
+        <v>-0.03045756489715712</v>
+      </c>
+      <c r="F50">
+        <v>-0.009041924337611786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1552145698338644</v>
+        <v>0.1483093671071084</v>
       </c>
       <c r="C52">
-        <v>0.02141060256915073</v>
+        <v>0.01948351084613674</v>
       </c>
       <c r="D52">
-        <v>-0.04155378012978724</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04271485689983609</v>
+      </c>
+      <c r="E52">
+        <v>-0.02210491390594137</v>
+      </c>
+      <c r="F52">
+        <v>-0.04205611172598722</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1744716032809101</v>
+        <v>0.1687430092877218</v>
       </c>
       <c r="C53">
-        <v>0.02240393960440804</v>
+        <v>0.02258211329259715</v>
       </c>
       <c r="D53">
-        <v>-0.00609276384099093</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00609790760580551</v>
+      </c>
+      <c r="E53">
+        <v>-0.02944225578096706</v>
+      </c>
+      <c r="F53">
+        <v>-0.0750319698726256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01770770792332467</v>
+        <v>0.01959560901366348</v>
       </c>
       <c r="C54">
-        <v>0.01229348637700678</v>
+        <v>0.01111024613369782</v>
       </c>
       <c r="D54">
-        <v>-0.02975232313732128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03042105328807847</v>
+      </c>
+      <c r="E54">
+        <v>-0.02118846891542957</v>
+      </c>
+      <c r="F54">
+        <v>0.002657076389050331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.118346689208784</v>
+        <v>0.1165988874902453</v>
       </c>
       <c r="C55">
-        <v>0.01975693233651987</v>
+        <v>0.01982565220053008</v>
       </c>
       <c r="D55">
-        <v>-0.004694544793024707</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008319901267443362</v>
+      </c>
+      <c r="E55">
+        <v>-0.02704154656606683</v>
+      </c>
+      <c r="F55">
+        <v>-0.04649486308638461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1808579309901763</v>
+        <v>0.1757441575732557</v>
       </c>
       <c r="C56">
-        <v>0.02048920487887618</v>
+        <v>0.02084227158209013</v>
       </c>
       <c r="D56">
-        <v>0.007380632949090061</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002845222322022277</v>
+      </c>
+      <c r="E56">
+        <v>-0.03253694112230553</v>
+      </c>
+      <c r="F56">
+        <v>-0.05527373362830947</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04714848985794671</v>
+        <v>0.04579482322340447</v>
       </c>
       <c r="C58">
-        <v>0.005129417876824671</v>
+        <v>0.0002716596555879128</v>
       </c>
       <c r="D58">
-        <v>-0.06664997551005321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07602469440299246</v>
+      </c>
+      <c r="E58">
+        <v>-0.03470232575961123</v>
+      </c>
+      <c r="F58">
+        <v>0.03800876107084083</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1591217726139515</v>
+        <v>0.1659750120445418</v>
       </c>
       <c r="C59">
-        <v>0.01671382232783626</v>
+        <v>0.02394658619944559</v>
       </c>
       <c r="D59">
-        <v>0.2260102992532166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176526029835391</v>
+      </c>
+      <c r="E59">
+        <v>0.04969846595064732</v>
+      </c>
+      <c r="F59">
+        <v>0.04000939048462252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2383239308403227</v>
+        <v>0.2301148374769283</v>
       </c>
       <c r="C60">
-        <v>0.004605796889767492</v>
+        <v>0.001613824752681258</v>
       </c>
       <c r="D60">
-        <v>-0.03487842555890649</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03816842477527926</v>
+      </c>
+      <c r="E60">
+        <v>-0.003445233406257043</v>
+      </c>
+      <c r="F60">
+        <v>-0.006273869784288218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08142745695910669</v>
+        <v>0.07454078944315029</v>
       </c>
       <c r="C61">
-        <v>0.01678720735562941</v>
+        <v>0.01132107988843753</v>
       </c>
       <c r="D61">
-        <v>-0.1097468199259115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1159557292496048</v>
+      </c>
+      <c r="E61">
+        <v>-0.03939213371600278</v>
+      </c>
+      <c r="F61">
+        <v>-0.007824426710788644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1730010011010336</v>
+        <v>0.1691584401838878</v>
       </c>
       <c r="C62">
-        <v>0.02428411388341122</v>
+        <v>0.0235836951979498</v>
       </c>
       <c r="D62">
-        <v>0.0005323971851170843</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005967879047655039</v>
+      </c>
+      <c r="E62">
+        <v>-0.0346906001868177</v>
+      </c>
+      <c r="F62">
+        <v>-0.04125252527002576</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04179233005560376</v>
+        <v>0.04577432651034193</v>
       </c>
       <c r="C63">
-        <v>0.005503703136719297</v>
+        <v>0.002122583306333152</v>
       </c>
       <c r="D63">
-        <v>-0.04899885789627518</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05982452010567808</v>
+      </c>
+      <c r="E63">
+        <v>-0.0241332470317322</v>
+      </c>
+      <c r="F63">
+        <v>-0.0008838316982690457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1143469679028622</v>
+        <v>0.1112538867761391</v>
       </c>
       <c r="C64">
-        <v>0.01659708847665178</v>
+        <v>0.01334085119933823</v>
       </c>
       <c r="D64">
-        <v>-0.03343289307269914</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04209470587210933</v>
+      </c>
+      <c r="E64">
+        <v>-0.02462032772363013</v>
+      </c>
+      <c r="F64">
+        <v>-0.02688241330983026</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.144826818013969</v>
+        <v>0.1518677794061515</v>
       </c>
       <c r="C65">
-        <v>0.03644178075426246</v>
+        <v>0.03629723842900187</v>
       </c>
       <c r="D65">
-        <v>0.0590496627617511</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04586474508673873</v>
+      </c>
+      <c r="E65">
+        <v>-0.005390129019982556</v>
+      </c>
+      <c r="F65">
+        <v>-0.03806290694877058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1336215629591914</v>
+        <v>0.1197653830995992</v>
       </c>
       <c r="C66">
-        <v>0.02153870760995942</v>
+        <v>0.01485866037559974</v>
       </c>
       <c r="D66">
-        <v>-0.1297465823954346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1399957473115612</v>
+      </c>
+      <c r="E66">
+        <v>-0.06538472837264352</v>
+      </c>
+      <c r="F66">
+        <v>-0.02736880845379311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06390365803340642</v>
+        <v>0.05648757467451786</v>
       </c>
       <c r="C67">
-        <v>0.006402845803696472</v>
+        <v>0.004077906934076947</v>
       </c>
       <c r="D67">
-        <v>-0.05427139189244515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05798689409668853</v>
+      </c>
+      <c r="E67">
+        <v>-0.02144608113086326</v>
+      </c>
+      <c r="F67">
+        <v>0.0343425003712307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1063488500648569</v>
+        <v>0.1171663164020221</v>
       </c>
       <c r="C68">
-        <v>0.02517480247377874</v>
+        <v>0.03456239234951652</v>
       </c>
       <c r="D68">
-        <v>0.2640658343125848</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609114577029389</v>
+      </c>
+      <c r="E68">
+        <v>0.0892021934510339</v>
+      </c>
+      <c r="F68">
+        <v>-0.001246691475917262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03845677493192899</v>
+        <v>0.03758127927768515</v>
       </c>
       <c r="C69">
-        <v>0.002146056495497733</v>
+        <v>0.001320168327279218</v>
       </c>
       <c r="D69">
-        <v>-0.007043648922494293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008523716557017461</v>
+      </c>
+      <c r="E69">
+        <v>-0.02425252151521572</v>
+      </c>
+      <c r="F69">
+        <v>0.000595261908798816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06753208748270442</v>
+        <v>0.06716361813388777</v>
       </c>
       <c r="C70">
-        <v>-0.0242290648518967</v>
+        <v>-0.02638941735922623</v>
       </c>
       <c r="D70">
-        <v>-0.02087336832068469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02677899439036821</v>
+      </c>
+      <c r="E70">
+        <v>0.02536369280437914</v>
+      </c>
+      <c r="F70">
+        <v>0.1813191844266044</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1250836478100673</v>
+        <v>0.1370380587549093</v>
       </c>
       <c r="C71">
-        <v>0.02984992641502148</v>
+        <v>0.03917507909012578</v>
       </c>
       <c r="D71">
-        <v>0.2807047019452588</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2706509868782794</v>
+      </c>
+      <c r="E71">
+        <v>0.09875292512684444</v>
+      </c>
+      <c r="F71">
+        <v>-0.006764621148866101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1367104553224733</v>
+        <v>0.143991523376221</v>
       </c>
       <c r="C72">
-        <v>0.02883946190504612</v>
+        <v>0.0293316764748888</v>
       </c>
       <c r="D72">
-        <v>-0.0007890136094536818</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003597135558839828</v>
+      </c>
+      <c r="E72">
+        <v>-0.03952360106313896</v>
+      </c>
+      <c r="F72">
+        <v>-0.0275400657237014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2030439541271589</v>
+        <v>0.2033793521505412</v>
       </c>
       <c r="C73">
-        <v>0.01801931660241044</v>
+        <v>0.01463192642456054</v>
       </c>
       <c r="D73">
-        <v>-0.006724111935447658</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01753454050303663</v>
+      </c>
+      <c r="E73">
+        <v>-0.06501624950455354</v>
+      </c>
+      <c r="F73">
+        <v>-0.04351000292750318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09152588103185612</v>
+        <v>0.09270738033861481</v>
       </c>
       <c r="C74">
-        <v>0.01476379915209902</v>
+        <v>0.01427968325429765</v>
       </c>
       <c r="D74">
-        <v>-0.01487644587708711</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01697710107175314</v>
+      </c>
+      <c r="E74">
+        <v>-0.04321257519927064</v>
+      </c>
+      <c r="F74">
+        <v>-0.0522071697008749</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1335644819132057</v>
+        <v>0.1258854435191081</v>
       </c>
       <c r="C75">
-        <v>0.03204544405482272</v>
+        <v>0.03038148177208946</v>
       </c>
       <c r="D75">
-        <v>-0.02306477556600575</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02933042039744824</v>
+      </c>
+      <c r="E75">
+        <v>-0.05686338289214332</v>
+      </c>
+      <c r="F75">
+        <v>-0.02132558075433549</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08197595917225722</v>
+        <v>0.09211060744154979</v>
       </c>
       <c r="C77">
-        <v>0.01438613878682517</v>
+        <v>0.008889586933838499</v>
       </c>
       <c r="D77">
-        <v>-0.112809883606098</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1163633008586488</v>
+      </c>
+      <c r="E77">
+        <v>-0.04902052076224327</v>
+      </c>
+      <c r="F77">
+        <v>-0.03618129740610879</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1021952102444577</v>
+        <v>0.1020412870770906</v>
       </c>
       <c r="C78">
-        <v>0.04472287889493778</v>
+        <v>0.0403714188789885</v>
       </c>
       <c r="D78">
-        <v>-0.1115485792738666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1114484440850831</v>
+      </c>
+      <c r="E78">
+        <v>-0.07838977195635215</v>
+      </c>
+      <c r="F78">
+        <v>-0.05235052366337979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1665498586943647</v>
+        <v>0.1633835936773272</v>
       </c>
       <c r="C79">
-        <v>0.0269345939661259</v>
+        <v>0.02591913521114876</v>
       </c>
       <c r="D79">
-        <v>-0.005435191892903993</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01163213167569998</v>
+      </c>
+      <c r="E79">
+        <v>-0.04403020831341922</v>
+      </c>
+      <c r="F79">
+        <v>-0.01291814666304503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08135143073982018</v>
+        <v>0.07961375547612702</v>
       </c>
       <c r="C80">
-        <v>0.00275642936431704</v>
+        <v>-1.998580647052158e-05</v>
       </c>
       <c r="D80">
-        <v>-0.05220521797853236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05344900415247394</v>
+      </c>
+      <c r="E80">
+        <v>-0.03531356097234352</v>
+      </c>
+      <c r="F80">
+        <v>0.02704879916496489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1210635066952552</v>
+        <v>0.1160448231745653</v>
       </c>
       <c r="C81">
-        <v>0.03418732487755029</v>
+        <v>0.0338044676699626</v>
       </c>
       <c r="D81">
-        <v>-0.007626794820800546</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0120646701984149</v>
+      </c>
+      <c r="E81">
+        <v>-0.05220474549919889</v>
+      </c>
+      <c r="F81">
+        <v>-0.01740080698114159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1661686045202467</v>
+        <v>0.1646926717692727</v>
       </c>
       <c r="C82">
-        <v>0.02759557655409273</v>
+        <v>0.02821464600710326</v>
       </c>
       <c r="D82">
-        <v>-0.004803210596468875</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002926521527256937</v>
+      </c>
+      <c r="E82">
+        <v>-0.02731966162449253</v>
+      </c>
+      <c r="F82">
+        <v>-0.08258892927149591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06330887321420064</v>
+        <v>0.05720570459233359</v>
       </c>
       <c r="C83">
-        <v>0.006043565529508453</v>
+        <v>0.003810044334271781</v>
       </c>
       <c r="D83">
-        <v>-0.0433164940030516</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04650606379888097</v>
+      </c>
+      <c r="E83">
+        <v>-0.002942581148872262</v>
+      </c>
+      <c r="F83">
+        <v>0.03695584005863154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06121689575536261</v>
+        <v>0.05554577448516711</v>
       </c>
       <c r="C84">
-        <v>0.01380766497724964</v>
+        <v>0.01113659184818977</v>
       </c>
       <c r="D84">
-        <v>-0.06865509566177858</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07215571985185795</v>
+      </c>
+      <c r="E84">
+        <v>-0.01409208404385515</v>
+      </c>
+      <c r="F84">
+        <v>-0.01479608691510097</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1396805331542895</v>
+        <v>0.1350146145104857</v>
       </c>
       <c r="C85">
-        <v>0.03100511770028933</v>
+        <v>0.03064345870012878</v>
       </c>
       <c r="D85">
-        <v>-0.006426597798287594</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009188200696844491</v>
+      </c>
+      <c r="E85">
+        <v>-0.03561887280844613</v>
+      </c>
+      <c r="F85">
+        <v>-0.04842249741681482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1001761194498325</v>
+        <v>0.0932242586421789</v>
       </c>
       <c r="C86">
-        <v>-0.001995500559494026</v>
+        <v>-0.00509996978971339</v>
       </c>
       <c r="D86">
-        <v>-0.01548470432286335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05125805359260481</v>
+      </c>
+      <c r="E86">
+        <v>-0.2216599191225639</v>
+      </c>
+      <c r="F86">
+        <v>0.8980576741793371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09658236131620225</v>
+        <v>0.09259810113508103</v>
       </c>
       <c r="C87">
-        <v>0.02856563844900012</v>
+        <v>0.0203182142070753</v>
       </c>
       <c r="D87">
-        <v>-0.07287708573643271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09472089545641264</v>
+      </c>
+      <c r="E87">
+        <v>0.04933695340385457</v>
+      </c>
+      <c r="F87">
+        <v>-0.05010039293251136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06255325016245941</v>
+        <v>0.06076896322271251</v>
       </c>
       <c r="C88">
-        <v>0.005773570453632933</v>
+        <v>0.002928331721771237</v>
       </c>
       <c r="D88">
-        <v>-0.0487766707320007</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04926056324811456</v>
+      </c>
+      <c r="E88">
+        <v>-0.02474141319474286</v>
+      </c>
+      <c r="F88">
+        <v>-0.01383664615944699</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1169580472067406</v>
+        <v>0.1267936545512317</v>
       </c>
       <c r="C89">
-        <v>0.006022015651146555</v>
+        <v>0.01456942000443004</v>
       </c>
       <c r="D89">
-        <v>0.2414811317235235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2422034624078989</v>
+      </c>
+      <c r="E89">
+        <v>0.09149043293195894</v>
+      </c>
+      <c r="F89">
+        <v>0.007508618660547905</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1374694742170331</v>
+        <v>0.1525293053110314</v>
       </c>
       <c r="C90">
-        <v>0.02624045277827411</v>
+        <v>0.03603651860443814</v>
       </c>
       <c r="D90">
-        <v>0.2670543633686383</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2677594593612871</v>
+      </c>
+      <c r="E90">
+        <v>0.1147928044301088</v>
+      </c>
+      <c r="F90">
+        <v>0.008096692781640429</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1215432574636674</v>
+        <v>0.1197622264624172</v>
       </c>
       <c r="C91">
-        <v>0.02166661844365295</v>
+        <v>0.02198623486028147</v>
       </c>
       <c r="D91">
-        <v>0.02042155162319753</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0171469279036943</v>
+      </c>
+      <c r="E91">
+        <v>-0.05335807763191017</v>
+      </c>
+      <c r="F91">
+        <v>0.001974033105869367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1380200568506322</v>
+        <v>0.145021267539845</v>
       </c>
       <c r="C92">
-        <v>0.01687787203122973</v>
+        <v>0.02685224682788018</v>
       </c>
       <c r="D92">
-        <v>0.298586502228719</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2931060673772828</v>
+      </c>
+      <c r="E92">
+        <v>0.1024139355416391</v>
+      </c>
+      <c r="F92">
+        <v>0.0176904593263834</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1405065521583286</v>
+        <v>0.1537967725145666</v>
       </c>
       <c r="C93">
-        <v>0.02235672123030446</v>
+        <v>0.03115169559829091</v>
       </c>
       <c r="D93">
-        <v>0.2663665925905649</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2638829327367268</v>
+      </c>
+      <c r="E93">
+        <v>0.07560728607295392</v>
+      </c>
+      <c r="F93">
+        <v>-0.003437606965122732</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1335000565597103</v>
+        <v>0.1257692986645619</v>
       </c>
       <c r="C94">
-        <v>0.02847903041345098</v>
+        <v>0.026403356991182</v>
       </c>
       <c r="D94">
-        <v>-0.03757935407653862</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04078132750960525</v>
+      </c>
+      <c r="E94">
+        <v>-0.05753853939923818</v>
+      </c>
+      <c r="F94">
+        <v>-0.03144408835792421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1280446918303139</v>
+        <v>0.1300297340316252</v>
       </c>
       <c r="C95">
-        <v>0.01085570697754224</v>
+        <v>0.005489359335482615</v>
       </c>
       <c r="D95">
-        <v>-0.08636013889948035</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09705189910209663</v>
+      </c>
+      <c r="E95">
+        <v>-0.05947831107327332</v>
+      </c>
+      <c r="F95">
+        <v>-0.00268459065972842</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1296465899322695</v>
+        <v>0.1234203225899538</v>
       </c>
       <c r="C96">
-        <v>-0.9858653688260854</v>
+        <v>-0.9855872446646098</v>
       </c>
       <c r="D96">
-        <v>0.01920270060339865</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05131215921046383</v>
+      </c>
+      <c r="E96">
+        <v>-0.05125109934887295</v>
+      </c>
+      <c r="F96">
+        <v>-0.04212762980056464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1952382825785128</v>
+        <v>0.1985465060124441</v>
       </c>
       <c r="C97">
-        <v>-0.002143866105480431</v>
+        <v>-0.002266021154652463</v>
       </c>
       <c r="D97">
-        <v>0.02257656055658105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02351389688424648</v>
+      </c>
+      <c r="E97">
+        <v>-0.02204865965402255</v>
+      </c>
+      <c r="F97">
+        <v>0.1206674492914148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2004540641354073</v>
+        <v>0.2062692663756563</v>
       </c>
       <c r="C98">
-        <v>0.01329961353143702</v>
+        <v>0.009585709449063749</v>
       </c>
       <c r="D98">
-        <v>-0.01213016272831553</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01421091070145455</v>
+      </c>
+      <c r="E98">
+        <v>0.0748152116808171</v>
+      </c>
+      <c r="F98">
+        <v>0.09225350201705194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05598437353536984</v>
+        <v>0.05517038973206516</v>
       </c>
       <c r="C99">
-        <v>-0.001516354259043111</v>
+        <v>-0.003611938942812995</v>
       </c>
       <c r="D99">
-        <v>-0.0312036377016985</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03876075354487902</v>
+      </c>
+      <c r="E99">
+        <v>-0.02241848093236338</v>
+      </c>
+      <c r="F99">
+        <v>-0.002734443101318253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1479135034736858</v>
+        <v>0.1331442273819843</v>
       </c>
       <c r="C100">
-        <v>-0.0369069371990039</v>
+        <v>-0.04935776916102701</v>
       </c>
       <c r="D100">
-        <v>-0.3926612294800679</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3584121944286376</v>
+      </c>
+      <c r="E100">
+        <v>0.8841616696877953</v>
+      </c>
+      <c r="F100">
+        <v>0.1478916645700828</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0259835396161685</v>
+        <v>0.02855168282216606</v>
       </c>
       <c r="C101">
-        <v>0.00988515127708775</v>
+        <v>0.009082652697912603</v>
       </c>
       <c r="D101">
-        <v>-0.02948207674308423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02958213173162747</v>
+      </c>
+      <c r="E101">
+        <v>-0.01454468203783916</v>
+      </c>
+      <c r="F101">
+        <v>0.01507408042657016</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
